--- a/DateBase/orders/Dang Nguyen_2024-11-7.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-7.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -604,14 +604,56 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" xml:space="preserve">
       <c r="A21" t="str">
         <v>3</v>
       </c>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F21" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>4</v>
+      </c>
+      <c r="C22" t="str">
+        <v>190_艾莎_Jumilia_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>713_雪果粉_snowberry pink_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>662_大丽花 白_undefined_undefined_5stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>398_小香球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L25"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -669,7 +711,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0810201010702025151515181510108101080</v>
+        <v>08102010107020251515151815101081010819101045</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-7.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-7.xlsx
@@ -713,6 +713,9 @@
       <c r="G2" t="str">
         <v>08102010107020251515151815101081010819101045</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
